--- a/수업내용/과제물/지역별에너지원소비실적.xlsx
+++ b/수업내용/과제물/지역별에너지원소비실적.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>지역별(1)</t>
   </si>
@@ -72,6 +72,9 @@
     <t>울산</t>
   </si>
   <si>
+    <t>세종</t>
+  </si>
+  <si>
     <t>경기</t>
   </si>
   <si>
@@ -102,7 +105,7 @@
     <t>○ 통계표ID</t>
   </si>
   <si>
-    <t>DT_11507N_152</t>
+    <t>DT_11507N_044</t>
   </si>
   <si>
     <t>○ 통계표명</t>
@@ -126,13 +129,13 @@
     <t>○ 자료다운일자</t>
   </si>
   <si>
-    <t>2023.07.13 16:19</t>
+    <t>2023.07.14 15:29</t>
   </si>
   <si>
     <t>○ 통계표URL</t>
   </si>
   <si>
-    <t>https://kosis.kr/statHtml/statHtml.do?orgId=115&amp;tblId=DT_11507N_152&amp;conn_path=I3</t>
+    <t>https://kosis.kr/statHtml/statHtml.do?orgId=115&amp;tblId=DT_11507N_044&amp;conn_path=I3</t>
   </si>
   <si>
     <t/>
@@ -385,25 +388,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>408.0</v>
+        <v>3047.0</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2840652.0</v>
+        <v>1.04233378E8</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2424607.0</v>
+        <v>8.6534226E7</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>17.0</v>
+        <v>3.5775266E7</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1534999.0</v>
+        <v>4847431.0</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>889591.0</v>
+        <v>4.591153E7</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>4837742.0</v>
+        <v>2.05804088E8</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -411,25 +414,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>81.0</v>
+        <v>33.0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1021857.0</v>
+        <v>377290.0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>931089.0</v>
+        <v>266437.0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>711914.0</v>
+        <v>2005.0</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>219175.0</v>
+        <v>264432.0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>1055434.0</v>
+        <v>1288990.0</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -437,25 +440,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>58.0</v>
+        <v>100.0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>340142.0</v>
+        <v>738556.0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>310091.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>404058.0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>43657.0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>226096.0</v>
+        <v>4677.0</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>83995.0</v>
+        <v>355724.0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>349432.0</v>
+        <v>3889507.0</v>
       </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
@@ -463,25 +466,25 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>22.0</v>
+        <v>112.0</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>77787.0</v>
+        <v>1056328.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>62631.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>850018.0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>178296.0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>20125.0</v>
+        <v>81897.0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>42506.0</v>
+        <v>589825.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>176235.0</v>
+        <v>2398953.0</v>
       </c>
     </row>
     <row r="8" ht="20.0" customHeight="true">
@@ -489,25 +492,25 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>119384.0</v>
+        <v>4653756.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>95664.0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>3982716.0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>28652.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>36564.0</v>
+        <v>22919.0</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>59100.0</v>
+        <v>3931145.0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>275812.0</v>
+        <v>7802790.0</v>
       </c>
     </row>
     <row r="9" ht="20.0" customHeight="true">
@@ -515,25 +518,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>9.0</v>
+        <v>48.0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>30109.0</v>
+        <v>336299.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>28226.0</v>
+        <v>200269.0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>5223.0</v>
+        <v>7635.0</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>23003.0</v>
+        <v>192634.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>21885.0</v>
+        <v>1581737.0</v>
       </c>
     </row>
     <row r="10" ht="20.0" customHeight="true">
@@ -541,25 +544,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>14.0</v>
+        <v>48.0</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>333511.0</v>
+        <v>396631.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>111434.0</v>
+        <v>227112.0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>83289.0</v>
+        <v>8701.0</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>28146.0</v>
+        <v>218412.0</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>2582284.0</v>
+        <v>1971151.0</v>
       </c>
     </row>
     <row r="11" ht="20.0" customHeight="true">
@@ -567,25 +570,25 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>11.0</v>
+        <v>184.0</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>43821.0</v>
+        <v>1.1609861E7</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>42530.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>9124018.0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>570614.0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>14691.0</v>
+        <v>1233380.0</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>27839.0</v>
+        <v>7320024.0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>15011.0</v>
+        <v>2.8905151E7</v>
       </c>
     </row>
     <row r="12" ht="20.0" customHeight="true">
@@ -593,25 +596,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>78.0</v>
+        <v>30.0</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>467647.0</v>
+        <v>175291.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>446653.0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>17.0</v>
+        <v>57648.0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>190995.0</v>
+        <v>7486.0</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>255641.0</v>
+        <v>50162.0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>244121.0</v>
+        <v>1367931.0</v>
       </c>
     </row>
     <row r="13" ht="20.0" customHeight="true">
@@ -619,25 +622,25 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>7.0</v>
+        <v>680.0</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>26574.0</v>
+        <v>1.8215915E7</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>26341.0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>1.4182089E7</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>475843.0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>25604.0</v>
+        <v>236961.0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>737.0</v>
+        <v>1.3469285E7</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>2706.0</v>
+        <v>4.6904949E7</v>
       </c>
     </row>
     <row r="14" ht="20.0" customHeight="true">
@@ -645,25 +648,25 @@
         <v>21</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>49983.0</v>
+        <v>4390806.0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>49736.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>3977894.0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>3055180.0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>31209.0</v>
+        <v>371072.0</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>18527.0</v>
+        <v>551642.0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>2872.0</v>
+        <v>4801296.0</v>
       </c>
     </row>
     <row r="15" ht="20.0" customHeight="true">
@@ -671,25 +674,25 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8.0</v>
+        <v>296.0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>33138.0</v>
+        <v>3231346.0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>32883.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>2019325.0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1042760.0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>19651.0</v>
+        <v>457535.0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>13232.0</v>
+        <v>519030.0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>2961.0</v>
+        <v>1.4093262E7</v>
       </c>
     </row>
     <row r="16" ht="20.0" customHeight="true">
@@ -697,25 +700,25 @@
         <v>23</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>11.0</v>
+        <v>362.0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>39378.0</v>
+        <v>1.6637546E7</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>38438.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>1.4225665E7</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>5984594.0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>16793.0</v>
+        <v>1002497.0</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>21645.0</v>
+        <v>7238574.0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>10933.0</v>
+        <v>2.8045125E7</v>
       </c>
     </row>
     <row r="17" ht="20.0" customHeight="true">
@@ -723,25 +726,25 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>15.0</v>
+        <v>165.0</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>81320.0</v>
+        <v>3098024.0</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>76178.0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>2315257.0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1770313.0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>57751.0</v>
+        <v>82137.0</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>18428.0</v>
+        <v>462807.0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>59783.0</v>
+        <v>9101936.0</v>
       </c>
     </row>
     <row r="18" ht="20.0" customHeight="true">
@@ -749,25 +752,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>19.0</v>
+        <v>162.0</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>71223.0</v>
+        <v>2.4145695E7</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>70772.0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>2.2303816E7</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1.2633754E7</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>31856.0</v>
+        <v>1076118.0</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>38916.0</v>
+        <v>8593944.0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>5247.0</v>
+        <v>2.1417194E7</v>
       </c>
     </row>
     <row r="19" ht="20.0" customHeight="true">
@@ -775,51 +778,77 @@
         <v>26</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>25.0</v>
+        <v>326.0</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>76859.0</v>
+        <v>1.1576772E7</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>74136.0</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>9770158.0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>8069007.0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>91837.0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1609314.0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>2.1007135E7</v>
+      </c>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>3575757.0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>2623858.0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1922596.0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>159625.0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>541637.0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>1.1068593E7</v>
+      </c>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>17507.0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3885.0</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <v>35433.0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>38703.0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>31664.0</v>
-      </c>
-    </row>
-    <row r="20" ht="20.0" customHeight="true">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>27921.0</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>27804.0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>27803.0</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>1361.0</v>
+      <c r="F21" s="3" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>2938.0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>158390.0</v>
       </c>
     </row>
   </sheetData>
@@ -842,79 +871,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
